--- a/Inputs/Now_Health_SimpleCare_ROW/benefits.xlsx
+++ b/Inputs/Now_Health_SimpleCare_ROW/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="95">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -412,77 +412,6 @@
       <t xml:space="preserve">USD 250 per year deductible/IP-USD 1,000 per year deductible/IP-USD 2,500 per year deductible/IP-USD 5,000 per year deductible/IP-USD 10,000 per year deductible/IP-USD 15,000 per year deductible/OP-USD 500 per visit excess (default)/OP-20% per visit co-pay/OP-USD 25 per visit excess</t>
     </r>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">IP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 500 per year deductible (default)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/IP-NIL per year deductible/IP-USD 150 per year deductible/IP-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 250 per year deductible/IP-USD 1,000 per year deductible/IP-USD 2,500 per year deductible/IP-USD 5,000 per year deductible/IP-USD 10,000 per year deductible/IP-USD 15,000 per year deductible/OP-USD 500 per visit excess (default)/OP-20% per visit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">co-pay</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/OP-USD 25 per visit excess</t>
-    </r>
-  </si>
 </sst>
 </file>
 
@@ -492,7 +421,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0%"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -612,12 +541,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -846,11 +769,11 @@
   </sheetPr>
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.37"/>
@@ -1698,7 +1621,7 @@
         <v>94</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
